--- a/data/raw/Story.xlsx
+++ b/data/raw/Story.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70DBF90-FC9D-2B40-A5D0-11B152C10C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB796C3-8342-884A-B7A1-2BCC16451B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6340" yWindow="620" windowWidth="60620" windowHeight="24220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,12 +49,6 @@
     <t>Alternative Description</t>
   </si>
   <si>
-    <t>BK_001</t>
-  </si>
-  <si>
-    <t>BK_002</t>
-  </si>
-  <si>
     <t>Book Edition ID</t>
   </si>
   <si>
@@ -97,12 +91,6 @@
 In this new environment, Alice embarks on another adventure filled with enigmatic algorithms, unusual digital entities, and peculiar happenings, where she must adapt to the unpredictable nature of the data streams and the ever-evolving digital landscape.</t>
   </si>
   <si>
-    <t>BCH_001, BCH_002, BCH_003, BCH_004, BCH_005, BCH_006, BCH_007, BCH_008, BCH_009, BCH_010, BCH_011, BCH_012, BCH_013</t>
-  </si>
-  <si>
-    <t>BCH_014, BCH_015, BCH_016, BCH_017, BCH_018, BCH_019, BCH_020, BCH_021, BCH_022, BCH_023, BCH_024, BCH_025, BCH_026, BCH_027, BCH_028, BCH_029</t>
-  </si>
-  <si>
     <t>BCO_001, BCO_002, BCO_003, BCO_004</t>
   </si>
   <si>
@@ -116,6 +104,18 @@
   </si>
   <si>
     <t>Story Chapter ID</t>
+  </si>
+  <si>
+    <t>SCH_001, SCH_002, SCH_003, SCH_004, SCH_005, SCH_006, SCH_007, SCH_008, SCH_009, SCH_010, SCH_011, SCH_012, SCH_013</t>
+  </si>
+  <si>
+    <t>SCH_014, SCH_015, SCH_016, SCH_017, SCH_018, SCH_019, SCH_020, SCH_021, SCH_022, SCH_023, SCH_024, SCH_025, SCH_026, SCH_027, SCH_028, SCH_029</t>
+  </si>
+  <si>
+    <t>ST_001</t>
+  </si>
+  <si>
+    <t>ST_002</t>
   </si>
 </sst>
 </file>
@@ -544,8 +544,8 @@
   </sheetPr>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -579,7 +579,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
@@ -588,18 +588,18 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="182" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -608,33 +608,33 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="224" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -643,28 +643,28 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="13" x14ac:dyDescent="0.15">
